--- a/datasets/MathAnxiety.xlsx
+++ b/datasets/MathAnxiety.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/Projects/IntroR/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/EPSY887 2019 Fall/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328E97D-F7FA-274A-806F-5230B76A22FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="24840" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24840" windowHeight="13960" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer2014" sheetId="2" r:id="rId1"/>
     <sheet name="Fall2014" sheetId="3" r:id="rId2"/>
     <sheet name="Summer2015" sheetId="1" r:id="rId3"/>
+    <sheet name="Fall2019" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="17">
   <si>
     <t>Gender</t>
   </si>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -126,6 +128,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -452,10 +457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -1457,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,11 +2743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3407,5 +3412,820 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC7AECA-7DAB-4548-89F1-8F66D54D98AE}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>